--- a/src/Server and Website/device_1_id.xlsx
+++ b/src/Server and Website/device_1_id.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\total files\Patient Records (1)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\IOT-based-Health-Monitoring-System\src\Server and Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -643,7 +643,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
